--- a/Final_Results/Real_gamma2.xlsx
+++ b/Final_Results/Real_gamma2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus.eur.nl\users\home\366515lw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\MThesis\Final_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,6 +112,382 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396096</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403872</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>61056</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB774F5E-4E8D-4659-94D0-5E9C224C026A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2834496" y="16878240"/>
+            <a:ext cx="7776" cy="7776"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB774F5E-4E8D-4659-94D0-5E9C224C026A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2829024" y="16872480"/>
+              <a:ext cx="19008" cy="19008"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68448</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>98784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518448</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>145152</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8A97DD-CB38-4FF6-A1F6-5C34C8B7BB06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1287648" y="16923744"/>
+            <a:ext cx="450000" cy="412128"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8A97DD-CB38-4FF6-A1F6-5C34C8B7BB06}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1280448" y="16916899"/>
+              <a:ext cx="464040" cy="426178"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121728</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>45504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61056</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>137376</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A209873F-AFC5-4842-9A35-31D34ED2BA9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1340928" y="17419104"/>
+            <a:ext cx="548928" cy="91872"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A209873F-AFC5-4842-9A35-31D34ED2BA9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1334089" y="17412259"/>
+              <a:ext cx="562966" cy="105923"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7392</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>60768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548832</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>106848</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A0A651-C3BE-4F7F-9D0C-E25F9628D8FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1226592" y="17617248"/>
+            <a:ext cx="541440" cy="46080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A0A651-C3BE-4F7F-9D0C-E25F9628D8FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1219752" y="17610408"/>
+              <a:ext cx="555480" cy="60120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-09-26T12:00:23.699"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1996 953 13824,'0'0'0,"0"-27"1216,0 27 0,-26 0-1216,26 0 0,0 0-4480,0 0 0,0 0 608</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-09-26T12:00:45.209"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 488 9472,'0'0'0,"21"0"1984,-21 0 0,0 0-1408,-21-21 0,21 21 192,0 0 32,-22 0 63,22 0 1,0 0-672,0 0 32,0 0 544,0 0 32,0 0-1504,0 0 0,0 0 1344,22 0 0,-1-22-640,0 22 0,21 0 32,-21 0 0,22 0-32,-1 0 0,22-21-640,-22 21 0,0 0 1440,22 0 32,-1 0-928,1 0 32,-22-21 64,22 21 0,-22 0 0,21-21 0,-20 21 0,-22 0 0,21 0 0,-21 0 0,22 0 96,-22 21 0,0-21-96,0 0 32,-21 0 288,21 21 0,1-21-480,-22 0 32,0 0 320,21 0 32,-21 0 32,0 0 0,0 0-192,0 0 0,21 0-64,-21 0 32,0 0 0,0 0 0,0 0-672,0 0 0,0 0-576,0 0 32,0 0-3743,0 0-1,0 0 480</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1926.9986">0 1 11776,'0'0'0,"0"0"768,0 0 32,0 0 1536,0 0 31,0 0-2367,0 0 0,0 0 0,0 0 32,22 0 832,-22 0 0,21 0-864,21 21 32,-21-21-32,22 0 0,-1 21 0,0 0 0,22 1-32,-22-1 0,22 0 64,-22-21 32,22 21 64,-1-21 0,1 0-96,-1 0 32,22-21-64,-22 21 0,1-21 1216,-22 0 0,1 21-1280,20-22 0,-21 22-32,-20 0 0,20 0 96,-21 0 32,0 0-2144,-21 0 32,21 0-1375,-21 0-1,22 22-3648</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3813.2946">85 657 11008,'0'0'0,"0"-21"2176,-21 0 0,21 21-2048,0 0 32,21 0-64,-21 0 0,0 0 1055,21 0 33,0-21-1184,0 21 0,1-22 0,-1 22 0,0-21 896,21 21 0,1-21-896,-1 0 0,0 0 0,1-22 0,-1 22-672,0 0 0,1-21 1088,-1 21 32,-21-1-448,0 1 32,1 0 0,-1 0 0,0 21 32,0-21 0,-21 21-64,0-21 0,0-1-416,0 22 32,-21-21 288,21 0 0,-21 0 192,21 21 0,-21-21-288,-1 21 32,22-21 128,-21 42 0,0 0 0,0 0 0,-22 0 0,22 0 32,0 22-32,0-22 32,0-21-32,21 21 32,0 0-32,-21-21 32,21 21-672,21-21 0,-21 22 896,21-1 0,-21 0-96,42 0 32,-21 0-288,1-21 32,-1 21 96,0-21 0,-21 22 32,21-22 0,-21 21 1056,0-21 0,0 21-1664,0-21 0,0 21 544,-21 0 32,21 0 32,0-21 32,-21 22 448,21-22 32,0 21-2336,-21-21 33,21 0-9441</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5818.8375">487 1144 9472,'0'-21'0,"0"21"1728,0-21 0,0 21-1248,21 0 0,-21 0 704,21 0 0,-21 0-289,22-22 1,-1 22-896,0-21 0,-21 21 0,21-42 0,22 21 32,-22 0 0,0-1-32,0 1 0,0 0 960,0 0 0,1-21-1792,-22 20 0,21 1 1344,-21 0 32,21 0-672,-21 0 0,0 0 128,21-1 0,-21 22-256,-21-21 32,21 0-1120,-21 21 1,0 0 2014,-1 0 1,1 0-896,0 0 0,0 21 128,0-21 0,21 21-639,-21-21 31,-1 22 864,22-1 32,0-21-192,-21 21 0,21-21 64,0 21 0,0-21 0,21 21 0,-21 0 0,43 1 0,-22-1 1023,21 0 1,-21 0-1888,22 0 32,-22 0 768,0-21 0,-21 22 576,21-1 32,-21-21-576,0 21 0,0 0 0,0 0 0,0 0 288,0-21 0,-21 22-352,21-22 0,0 0-1216,0 0 1,0 21 31,-21-21 0,21 0-3200,0 21 0,-21-21 2432</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-09-26T12:00:53.254"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">933 1556 8960,'21'0'0,"-21"-21"1856,0 21 0,0-21-1088,0 21 32,0 0 1152,0 0 31,0 0-1983,0 0 32,0 0 608,0 0 0,0 0-608,0 0 32,0 0 0,0 0 0,21 0-64,21-21 32,1 21 608,20-21 0,1-21-640,-1 20 0,1 1 0,-1 0 32,22 0-320,-1 0 0,1 21 224,-21-21 0,20 21 64,-20 0 0,20 0 768,-20 0 32,0 21-768,20-21 0,-20 21 32,-22-21 0,22 21-32,-22-21 32,-21 0-64,0 0 0,0 0 0,1 21 0,-1-21-1248,-21 0 0,0 0 160,0 0 0,0 0-767,0 0-1,-21 0-7584</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-09-26T12:00:53.910"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.04" units="cm"/>
+      <inkml:brushProperty name="height" value="0.04" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">853 1568 9728,'21'0'0,"0"-22"2112,0 22 0,-21 0-2048,21 0 0,-21-21 1088,21 21 0,1-21-481,20 0 1,0 21-640,1 0 32,20-21 928,1 21 0,-1 0-992,1 0 0,20 0 0,1 0 0,0 0 320,-1 0 32,22 0-352,-21 0 0,-22 0 672,1-21 0,-1 21-672,1 0 0,-22 0 0,0 0 32,1 0 448,-22 0 32,0 0-544,0 0 32,-21 0-64,21 0 0,-21 0 0,0 0 0,0 0 32,0 0 32,0 0-2048,0 0 0,0 0 512,0 0 1,0 0-9121</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -190,6 +566,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -225,6 +618,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,16 +810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.10169491525423729</v>
       </c>
@@ -442,8 +852,24 @@
       <c r="E2">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>AVERAGE(A:A)</f>
+        <v>0.63708682381972859</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B:B)</f>
+        <v>-0.79146411264503469</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(C:C)</f>
+        <v>1.3409612984884856</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(D:D)</f>
+        <v>65.131859960658602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -459,8 +885,12 @@
       <c r="E3">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>_xlfn.STDEV.S(C:C)</f>
+        <v>0.34703238040661744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -477,7 +907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.60451977401129942</v>
       </c>
@@ -494,7 +924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -511,7 +941,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -528,7 +958,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -545,7 +975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.93973634651600746</v>
       </c>
@@ -562,7 +992,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -579,7 +1009,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -596,7 +1026,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.99435028248587565</v>
       </c>
@@ -613,7 +1043,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -630,7 +1060,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -647,7 +1077,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.10169491525423729</v>
       </c>
@@ -664,7 +1094,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.8832391713747649E-3</v>
       </c>
@@ -681,7 +1111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -698,7 +1128,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.87947269303201503</v>
       </c>
@@ -715,7 +1145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -732,7 +1162,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.48775894538606401</v>
       </c>
@@ -749,7 +1179,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.9096045197740106E-2</v>
       </c>
@@ -766,7 +1196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -783,7 +1213,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.49152542372881358</v>
       </c>
@@ -800,7 +1230,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -817,7 +1247,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -834,7 +1264,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.99058380414312619</v>
       </c>
@@ -851,7 +1281,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -868,7 +1298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.98870056497175129</v>
       </c>
@@ -885,7 +1315,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -902,7 +1332,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -919,7 +1349,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.82297551789077217</v>
       </c>
@@ -936,7 +1366,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -953,7 +1383,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -970,7 +1400,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -987,7 +1417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1004,7 +1434,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1021,7 +1451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1038,7 +1468,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.16760828625235399</v>
       </c>
@@ -1055,7 +1485,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.967984934086629</v>
       </c>
@@ -1072,7 +1502,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.98681732580037662</v>
       </c>
@@ -1089,7 +1519,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.9152542372881356</v>
       </c>
@@ -1106,7 +1536,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1123,7 +1553,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.0847457627118627E-2</v>
       </c>
@@ -1140,7 +1570,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.98305084745762716</v>
       </c>
@@ -1157,7 +1587,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.71374764595103568</v>
       </c>
@@ -1174,7 +1604,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1191,7 +1621,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1208,7 +1638,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.51789077212806023</v>
       </c>
@@ -1225,7 +1655,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.0715630885122412E-2</v>
       </c>
@@ -1242,7 +1672,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.35216572504708099</v>
       </c>
@@ -1259,7 +1689,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.98116760828625227</v>
       </c>
@@ -1276,7 +1706,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1293,7 +1723,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.6365348399246703</v>
       </c>
@@ -1310,7 +1740,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.20338983050847459</v>
       </c>
@@ -1327,7 +1757,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1344,7 +1774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1361,7 +1791,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.49529190207156309</v>
       </c>
@@ -1378,7 +1808,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1395,7 +1825,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1412,7 +1842,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9.981167608286251E-2</v>
       </c>
@@ -1429,7 +1859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1446,7 +1876,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1463,7 +1893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1480,7 +1910,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.61205273069679833</v>
       </c>
@@ -1497,7 +1927,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.99246704331450097</v>
       </c>
@@ -1514,7 +1944,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1531,7 +1961,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.55367231638418091</v>
       </c>
@@ -1548,7 +1978,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.85499058380414306</v>
       </c>
@@ -1565,7 +1995,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.22410546139359691</v>
       </c>
@@ -1582,7 +2012,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1599,7 +2029,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1616,7 +2046,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.9265536723163843</v>
       </c>
@@ -1633,7 +2063,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.3352165725047081</v>
       </c>
@@ -1650,7 +2080,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1667,7 +2097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1684,7 +2114,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1701,7 +2131,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1718,7 +2148,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1735,7 +2165,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.7024482109227872</v>
       </c>
@@ -1752,7 +2182,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1769,7 +2199,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.81167608286252357</v>
       </c>
@@ -1786,7 +2216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -1803,7 +2233,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1820,7 +2250,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.99435028248587576</v>
       </c>
@@ -1837,7 +2267,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.0715630885122412E-2</v>
       </c>
@@ -1854,7 +2284,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1871,7 +2301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -1888,7 +2318,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -1905,7 +2335,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -1922,7 +2352,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.1939736346516007</v>
       </c>
@@ -1939,7 +2369,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1956,7 +2386,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1973,7 +2403,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1990,7 +2420,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2007,7 +2437,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2024,7 +2454,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -2041,7 +2471,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.4161958568738227E-2</v>
       </c>
@@ -2058,7 +2488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.1431261770244821</v>
       </c>
@@ -2075,7 +2505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.15630885122410551</v>
       </c>
@@ -2092,7 +2522,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2109,7 +2539,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.54990583804143123</v>
       </c>
@@ -2126,7 +2556,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -2143,7 +2573,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2160,7 +2590,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2177,7 +2607,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2194,7 +2624,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2211,7 +2641,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2228,7 +2658,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2245,7 +2675,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.97363465160075324</v>
       </c>
@@ -2262,7 +2692,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2279,7 +2709,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.76836158192090387</v>
       </c>
@@ -2296,7 +2726,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2313,7 +2743,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8.0979284369114876E-2</v>
       </c>
@@ -2330,7 +2760,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.96233521657250465</v>
       </c>
@@ -2347,7 +2777,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2364,7 +2794,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.80979284369114868</v>
       </c>
@@ -2381,7 +2811,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2398,7 +2828,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.54613935969868155</v>
       </c>
@@ -2415,7 +2845,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.99058380414312619</v>
       </c>
@@ -2432,7 +2862,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.57062146892655363</v>
       </c>
@@ -2449,7 +2879,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.98116760828625227</v>
       </c>
@@ -2466,7 +2896,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>9.4161958568738241E-3</v>
       </c>
@@ -2483,7 +2913,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.19209039548022599</v>
       </c>
@@ -2500,7 +2930,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.67608286252354044</v>
       </c>
@@ -2517,7 +2947,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0</v>
       </c>
@@ -2534,7 +2964,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.99623352165725043</v>
       </c>
@@ -2551,7 +2981,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2568,7 +2998,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2585,7 +3015,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2602,7 +3032,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -2619,7 +3049,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.99246704331450097</v>
       </c>
@@ -2636,7 +3066,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2653,7 +3083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -2670,7 +3100,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2.6365348399246698E-2</v>
       </c>
@@ -2687,7 +3117,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.99811676082862522</v>
       </c>
@@ -2704,7 +3134,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -2721,7 +3151,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -2738,7 +3168,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.99435028248587576</v>
       </c>
@@ -2755,7 +3185,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.48210922787193972</v>
       </c>
@@ -2772,7 +3202,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.99246704331450097</v>
       </c>
@@ -2789,7 +3219,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.56120527306967982</v>
       </c>
@@ -2806,7 +3236,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2823,7 +3253,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -2840,7 +3270,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -2857,7 +3287,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.93220338983050843</v>
       </c>
@@ -2874,7 +3304,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -2891,7 +3321,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -2908,7 +3338,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.88512241054613927</v>
       </c>
@@ -2925,7 +3355,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.60075329566854985</v>
       </c>
@@ -2942,7 +3372,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -2959,7 +3389,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.60075329566854985</v>
       </c>
@@ -2976,7 +3406,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -2993,7 +3423,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0</v>
       </c>
@@ -3010,7 +3440,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3027,7 +3457,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3044,7 +3474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.45386064030131829</v>
       </c>
@@ -3061,7 +3491,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3078,7 +3508,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.99623352165725043</v>
       </c>
@@ -3095,7 +3525,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.81167608286252346</v>
       </c>
@@ -3112,7 +3542,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0</v>
       </c>
@@ -3129,7 +3559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.65725047080979271</v>
       </c>
@@ -3146,7 +3576,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3163,7 +3593,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3180,7 +3610,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.82297551789077217</v>
       </c>
@@ -3197,7 +3627,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0</v>
       </c>
@@ -3214,7 +3644,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0</v>
       </c>
@@ -3231,7 +3661,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>6.0263653483992458E-2</v>
       </c>
@@ -3248,7 +3678,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3265,7 +3695,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3282,7 +3712,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3299,7 +3729,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3.0131826741996229E-2</v>
       </c>
@@ -3316,7 +3746,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.55743879472693025</v>
       </c>
@@ -3333,7 +3763,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.24670433145009421</v>
       </c>
@@ -3350,7 +3780,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -3367,7 +3797,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.19962335216572499</v>
       </c>
@@ -3384,7 +3814,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.17890772128060259</v>
       </c>
@@ -3401,7 +3831,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3418,7 +3848,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3435,7 +3865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.1299435028248589E-2</v>
       </c>
@@ -3452,7 +3882,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.69114877589453849</v>
       </c>
@@ -3469,7 +3899,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -3486,7 +3916,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2.2598870056497179E-2</v>
       </c>
@@ -3503,7 +3933,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.89642184557438787</v>
       </c>
@@ -3520,7 +3950,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -3537,7 +3967,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3554,7 +3984,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -3571,7 +4001,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -3588,7 +4018,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3.2015065913370999E-2</v>
       </c>
@@ -3605,7 +4035,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.61205273069679844</v>
       </c>
@@ -3622,7 +4052,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.99811676082862522</v>
       </c>
@@ -3639,7 +4069,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.98870056497175141</v>
       </c>
@@ -3656,7 +4086,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.94350282485875703</v>
       </c>
@@ -3673,7 +4103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0</v>
       </c>
@@ -3690,7 +4120,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.85310734463276827</v>
       </c>
@@ -3707,7 +4137,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.85310734463276827</v>
       </c>
@@ -3724,7 +4154,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3.7664783427495303E-2</v>
       </c>
@@ -3741,7 +4171,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3758,7 +4188,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.97363465160075335</v>
       </c>
@@ -3775,7 +4205,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.98305084745762716</v>
       </c>
@@ -3792,7 +4222,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0</v>
       </c>
@@ -3809,7 +4239,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.23728813559322029</v>
       </c>
@@ -3826,7 +4256,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.96421845574387943</v>
       </c>
@@ -3843,7 +4273,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -3860,7 +4290,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -3877,7 +4307,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.99811676082862522</v>
       </c>
@@ -3894,7 +4324,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -3911,7 +4341,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0.96421845574387943</v>
       </c>
@@ -3928,7 +4358,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0.96233521657250476</v>
       </c>
@@ -3945,7 +4375,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -3962,7 +4392,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>6.0263653483992458E-2</v>
       </c>
@@ -3979,7 +4409,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -3996,7 +4426,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -4013,7 +4443,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.99246704331450097</v>
       </c>
@@ -4030,7 +4460,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -4047,7 +4477,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0.84369114877589446</v>
       </c>
@@ -4064,7 +4494,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -4081,7 +4511,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0.15819209039548021</v>
       </c>
@@ -4098,7 +4528,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0.85687382297551795</v>
       </c>
@@ -4115,7 +4545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0.1111111111111111</v>
       </c>
@@ -4132,7 +4562,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -4149,7 +4579,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -4166,7 +4596,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0.99435028248587576</v>
       </c>
@@ -4183,7 +4613,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -4200,7 +4630,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -4217,7 +4647,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -4234,7 +4664,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0.10357815442561211</v>
       </c>
@@ -4251,7 +4681,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0.89642184557438787</v>
       </c>
@@ -4268,7 +4698,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -4285,7 +4715,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -4302,7 +4732,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.99246704331450097</v>
       </c>
@@ -4319,7 +4749,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0.99058380414312619</v>
       </c>
@@ -4336,7 +4766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.79849340866290019</v>
       </c>
@@ -4353,7 +4783,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0.97175141242937857</v>
       </c>
@@ -4370,7 +4800,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -4387,7 +4817,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.83615819209039555</v>
       </c>
@@ -4404,7 +4834,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -4421,7 +4851,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0.96798493408662889</v>
       </c>
@@ -4438,7 +4868,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.92278719397363462</v>
       </c>
@@ -4455,7 +4885,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0.32203389830508472</v>
       </c>
@@ -4472,7 +4902,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.96610169491525422</v>
       </c>
@@ -4489,7 +4919,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -4506,7 +4936,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1.3182674199623349E-2</v>
       </c>
@@ -4523,7 +4953,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0</v>
       </c>
@@ -4540,7 +4970,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0.45574387947269301</v>
       </c>
@@ -4557,7 +4987,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.90018832391713743</v>
       </c>
@@ -4574,7 +5004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.25800376647834272</v>
       </c>
@@ -4591,7 +5021,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -4608,7 +5038,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0.98116760828625227</v>
       </c>
@@ -4625,7 +5055,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2.8248587570621469E-2</v>
       </c>
@@ -4642,7 +5072,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0.90960451977401124</v>
       </c>
@@ -4659,7 +5089,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9.6045197740112997E-2</v>
       </c>
@@ -4676,7 +5106,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0.95480225988700562</v>
       </c>
@@ -4693,7 +5123,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -4710,7 +5140,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -4727,7 +5157,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0.98493408662900184</v>
       </c>
@@ -4744,7 +5174,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -4761,7 +5191,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -4778,7 +5208,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1</v>
       </c>
@@ -4795,7 +5225,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>0.98493408662900195</v>
       </c>
@@ -4812,7 +5242,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0.99623352165725043</v>
       </c>
@@ -4829,7 +5259,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -4846,24 +5276,2490 @@
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.96421845574387943</v>
+        <v>0.71939736346515992</v>
       </c>
       <c r="B262">
-        <v>-0.4687296003541957</v>
+        <v>-0.54193999193086839</v>
       </c>
       <c r="C262">
-        <v>2.133426178428564</v>
+        <v>1.8452227458562671</v>
       </c>
       <c r="D262">
-        <v>62.208899523383387</v>
+        <v>78.145139405458764</v>
       </c>
       <c r="E262">
         <v>500</v>
       </c>
     </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>-0.50134372615147338</v>
+      </c>
+      <c r="C263">
+        <v>1.9946395014782039</v>
+      </c>
+      <c r="D263">
+        <v>58.024430988329833</v>
+      </c>
+      <c r="E263">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0.82862523540489641</v>
+      </c>
+      <c r="B264">
+        <v>-0.71269353419864978</v>
+      </c>
+      <c r="C264">
+        <v>1.4031276446535981</v>
+      </c>
+      <c r="D264">
+        <v>72.962315188828242</v>
+      </c>
+      <c r="E264">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0.80037664783427498</v>
+      </c>
+      <c r="B265">
+        <v>-0.66546937094333525</v>
+      </c>
+      <c r="C265">
+        <v>1.5026987622021599</v>
+      </c>
+      <c r="D265">
+        <v>76.738395608122403</v>
+      </c>
+      <c r="E265">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>4.7080979284369107E-2</v>
+      </c>
+      <c r="B266">
+        <v>-0.93821732598173435</v>
+      </c>
+      <c r="C266">
+        <v>1.065851133108864</v>
+      </c>
+      <c r="D266">
+        <v>62.629106340113303</v>
+      </c>
+      <c r="E266">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="B267">
+        <v>-0.91342135514391587</v>
+      </c>
+      <c r="C267">
+        <v>1.0947850018707339</v>
+      </c>
+      <c r="D267">
+        <v>60.118227761664521</v>
+      </c>
+      <c r="E267">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0.18455743879472691</v>
+      </c>
+      <c r="B268">
+        <v>-0.74663736590201601</v>
+      </c>
+      <c r="C268">
+        <v>1.339338272726138</v>
+      </c>
+      <c r="D268">
+        <v>75.792328160413049</v>
+      </c>
+      <c r="E268">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0.39736346516007531</v>
+      </c>
+      <c r="B269">
+        <v>-0.87632171695798333</v>
+      </c>
+      <c r="C269">
+        <v>1.1411334224048979</v>
+      </c>
+      <c r="D269">
+        <v>85.569778261490939</v>
+      </c>
+      <c r="E269">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0.64783427495291901</v>
+      </c>
+      <c r="B270">
+        <v>-0.73558030974461874</v>
+      </c>
+      <c r="C270">
+        <v>1.3594708650469221</v>
+      </c>
+      <c r="D270">
+        <v>84.399218792359363</v>
+      </c>
+      <c r="E270">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="B271">
+        <v>-0.92265582685422531</v>
+      </c>
+      <c r="C271">
+        <v>1.0838277620913941</v>
+      </c>
+      <c r="D271">
+        <v>58.772137670931571</v>
+      </c>
+      <c r="E271">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0.70809792843691155</v>
+      </c>
+      <c r="B272">
+        <v>-0.70952318135491566</v>
+      </c>
+      <c r="C272">
+        <v>1.409397220948279</v>
+      </c>
+      <c r="D272">
+        <v>78.593112528040336</v>
+      </c>
+      <c r="E272">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>-0.71400831860724112</v>
+      </c>
+      <c r="C273">
+        <v>1.4005439067581451</v>
+      </c>
+      <c r="D273">
+        <v>58.112903912313257</v>
+      </c>
+      <c r="E273">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0.97740112994350292</v>
+      </c>
+      <c r="B274">
+        <v>-0.76699772521209797</v>
+      </c>
+      <c r="C274">
+        <v>1.3037848315957781</v>
+      </c>
+      <c r="D274">
+        <v>60.827776002762782</v>
+      </c>
+      <c r="E274">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>-0.82016670057581342</v>
+      </c>
+      <c r="C275">
+        <v>1.219264326749588</v>
+      </c>
+      <c r="D275">
+        <v>58.115633416178682</v>
+      </c>
+      <c r="E275">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>2.2598870056497179E-2</v>
+      </c>
+      <c r="B276">
+        <v>-0.8970438297176847</v>
+      </c>
+      <c r="C276">
+        <v>1.1147727311325659</v>
+      </c>
+      <c r="D276">
+        <v>60.778359738993068</v>
+      </c>
+      <c r="E276">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0.92090395480225995</v>
+      </c>
+      <c r="B277">
+        <v>-0.71732909401084155</v>
+      </c>
+      <c r="C277">
+        <v>1.394060283277575</v>
+      </c>
+      <c r="D277">
+        <v>66.21444200248763</v>
+      </c>
+      <c r="E277">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0.15254237288135589</v>
+      </c>
+      <c r="B278">
+        <v>-0.96011232066973085</v>
+      </c>
+      <c r="C278">
+        <v>1.0415448051978391</v>
+      </c>
+      <c r="D278">
+        <v>69.079927569224026</v>
+      </c>
+      <c r="E278">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>-0.86043861698538815</v>
+      </c>
+      <c r="C279">
+        <v>1.162197953764065</v>
+      </c>
+      <c r="D279">
+        <v>58.143609208801202</v>
+      </c>
+      <c r="E279">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0.98681732580037662</v>
+      </c>
+      <c r="B280">
+        <v>-0.75944005380863333</v>
+      </c>
+      <c r="C280">
+        <v>1.316759624390293</v>
+      </c>
+      <c r="D280">
+        <v>59.749237571751003</v>
+      </c>
+      <c r="E280">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>-0.85323665373453739</v>
+      </c>
+      <c r="C281">
+        <v>1.1720077842684009</v>
+      </c>
+      <c r="D281">
+        <v>58.115412885350217</v>
+      </c>
+      <c r="E281">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0.99435028248587576</v>
+      </c>
+      <c r="B282">
+        <v>-0.89901680242652793</v>
+      </c>
+      <c r="C282">
+        <v>1.1123262627582811</v>
+      </c>
+      <c r="D282">
+        <v>58.822051115979257</v>
+      </c>
+      <c r="E282">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>-1.037905079506336</v>
+      </c>
+      <c r="C283">
+        <v>0.9634792427026514</v>
+      </c>
+      <c r="D283">
+        <v>58.12136356411775</v>
+      </c>
+      <c r="E283">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>-0.84255275795341156</v>
+      </c>
+      <c r="C284">
+        <v>1.186869297572573</v>
+      </c>
+      <c r="D284">
+        <v>58.148610740028843</v>
+      </c>
+      <c r="E284">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <v>-1.135333002301532</v>
+      </c>
+      <c r="C285">
+        <v>0.88079884753883975</v>
+      </c>
+      <c r="D285">
+        <v>58.166355151907069</v>
+      </c>
+      <c r="E285">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0.3352165725047081</v>
+      </c>
+      <c r="B286">
+        <v>-0.93358047697753854</v>
+      </c>
+      <c r="C286">
+        <v>1.0711449357183369</v>
+      </c>
+      <c r="D286">
+        <v>80.500045386285819</v>
+      </c>
+      <c r="E286">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0.69679849340866284</v>
+      </c>
+      <c r="B287">
+        <v>-0.94768310587690752</v>
+      </c>
+      <c r="C287">
+        <v>1.0552050509275279</v>
+      </c>
+      <c r="D287">
+        <v>80.492232352087086</v>
+      </c>
+      <c r="E287">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0.89265536723163852</v>
+      </c>
+      <c r="B288">
+        <v>-0.97868250153907255</v>
+      </c>
+      <c r="C288">
+        <v>1.0217818326448089</v>
+      </c>
+      <c r="D288">
+        <v>68.221057515132628</v>
+      </c>
+      <c r="E288">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0.967984934086629</v>
+      </c>
+      <c r="B289">
+        <v>-1.045608140730464</v>
+      </c>
+      <c r="C289">
+        <v>0.95638123025840038</v>
+      </c>
+      <c r="D289">
+        <v>61.582283396397713</v>
+      </c>
+      <c r="E289">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0.90960451977401124</v>
+      </c>
+      <c r="B290">
+        <v>-1.378118278000751</v>
+      </c>
+      <c r="C290">
+        <v>0.72562712211517066</v>
+      </c>
+      <c r="D290">
+        <v>66.73192836653493</v>
+      </c>
+      <c r="E290">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0.92843691148775898</v>
+      </c>
+      <c r="B291">
+        <v>-1.278051946274761</v>
+      </c>
+      <c r="C291">
+        <v>0.78244080994890619</v>
+      </c>
+      <c r="D291">
+        <v>66.122859399954407</v>
+      </c>
+      <c r="E291">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0.61581920903954801</v>
+      </c>
+      <c r="B292">
+        <v>-1.046837568341312</v>
+      </c>
+      <c r="C292">
+        <v>0.95525803643489327</v>
+      </c>
+      <c r="D292">
+        <v>82.022967848944319</v>
+      </c>
+      <c r="E292">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0.17890772128060259</v>
+      </c>
+      <c r="B293">
+        <v>-0.84380590958590918</v>
+      </c>
+      <c r="C293">
+        <v>1.1851066562104811</v>
+      </c>
+      <c r="D293">
+        <v>74.086974977298368</v>
+      </c>
+      <c r="E293">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0.91337099811676092</v>
+      </c>
+      <c r="B294">
+        <v>-1.265935872746156</v>
+      </c>
+      <c r="C294">
+        <v>0.78992942812397826</v>
+      </c>
+      <c r="D294">
+        <v>66.839694900974251</v>
+      </c>
+      <c r="E294">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0.160075329566855</v>
+      </c>
+      <c r="B295">
+        <v>-0.86555137051628128</v>
+      </c>
+      <c r="C295">
+        <v>1.155332928886154</v>
+      </c>
+      <c r="D295">
+        <v>74.017909201181979</v>
+      </c>
+      <c r="E295">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>-0.84804351470174788</v>
+      </c>
+      <c r="C296">
+        <v>1.179184773733803</v>
+      </c>
+      <c r="D296">
+        <v>58.20154111408344</v>
+      </c>
+      <c r="E296">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>-0.96681189186087146</v>
+      </c>
+      <c r="C297">
+        <v>1.034327368558996</v>
+      </c>
+      <c r="D297">
+        <v>58.147173923572723</v>
+      </c>
+      <c r="E297">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0.99058380414312619</v>
+      </c>
+      <c r="B298">
+        <v>-1.049664817615499</v>
+      </c>
+      <c r="C298">
+        <v>0.95268506976510681</v>
+      </c>
+      <c r="D298">
+        <v>59.287295467815738</v>
+      </c>
+      <c r="E298">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0.89265536723163841</v>
+      </c>
+      <c r="B299">
+        <v>-0.88595501059323789</v>
+      </c>
+      <c r="C299">
+        <v>1.128725486106114</v>
+      </c>
+      <c r="D299">
+        <v>69.444386732083842</v>
+      </c>
+      <c r="E299">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0.99246704331450097</v>
+      </c>
+      <c r="B300">
+        <v>-1.051685382652453</v>
+      </c>
+      <c r="C300">
+        <v>0.95085471044382319</v>
+      </c>
+      <c r="D300">
+        <v>59.032792702126692</v>
+      </c>
+      <c r="E300">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0.92090395480225984</v>
+      </c>
+      <c r="B301">
+        <v>-0.99468362996046289</v>
+      </c>
+      <c r="C301">
+        <v>1.005344784893814</v>
+      </c>
+      <c r="D301">
+        <v>65.378256894846302</v>
+      </c>
+      <c r="E301">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>-0.81172391970255497</v>
+      </c>
+      <c r="C302">
+        <v>1.2319459556722641</v>
+      </c>
+      <c r="D302">
+        <v>58.209466353391662</v>
+      </c>
+      <c r="E302">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0.94538606403013192</v>
+      </c>
+      <c r="B303">
+        <v>-0.95592376951499403</v>
+      </c>
+      <c r="C303">
+        <v>1.0461085202509079</v>
+      </c>
+      <c r="D303">
+        <v>64.019319283083846</v>
+      </c>
+      <c r="E303">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0.82297551789077206</v>
+      </c>
+      <c r="B304">
+        <v>-0.90679378009261247</v>
+      </c>
+      <c r="C304">
+        <v>1.102786567302952</v>
+      </c>
+      <c r="D304">
+        <v>72.602437166669858</v>
+      </c>
+      <c r="E304">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>-0.81125217412357631</v>
+      </c>
+      <c r="C305">
+        <v>1.2326623359503901</v>
+      </c>
+      <c r="D305">
+        <v>58.249468348202683</v>
+      </c>
+      <c r="E305">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0.94726930320150649</v>
+      </c>
+      <c r="B306">
+        <v>-1.133541852780434</v>
+      </c>
+      <c r="C306">
+        <v>0.88219062890984334</v>
+      </c>
+      <c r="D306">
+        <v>63.092664429344673</v>
+      </c>
+      <c r="E306">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="B307">
+        <v>-0.79221246071292539</v>
+      </c>
+      <c r="C307">
+        <v>1.2622876432669119</v>
+      </c>
+      <c r="D307">
+        <v>62.284089855674686</v>
+      </c>
+      <c r="E307">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0.18267419962335221</v>
+      </c>
+      <c r="B308">
+        <v>-1.0057856747383049</v>
+      </c>
+      <c r="C308">
+        <v>0.99424760673807511</v>
+      </c>
+      <c r="D308">
+        <v>72.231889487101668</v>
+      </c>
+      <c r="E308">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0.2391713747645951</v>
+      </c>
+      <c r="B309">
+        <v>-0.67172964616236153</v>
+      </c>
+      <c r="C309">
+        <v>1.4886941580039981</v>
+      </c>
+      <c r="D309">
+        <v>78.036152026165198</v>
+      </c>
+      <c r="E309">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0.92655367231638419</v>
+      </c>
+      <c r="B310">
+        <v>-1.0635797435195731</v>
+      </c>
+      <c r="C310">
+        <v>0.94022099056796937</v>
+      </c>
+      <c r="D310">
+        <v>65.476538449397196</v>
+      </c>
+      <c r="E310">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="B311">
+        <v>-1.014399129385102</v>
+      </c>
+      <c r="C311">
+        <v>0.98580526247707823</v>
+      </c>
+      <c r="D311">
+        <v>75.951818493020269</v>
+      </c>
+      <c r="E311">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0.9792843691148776</v>
+      </c>
+      <c r="B312">
+        <v>-1.120591995913808</v>
+      </c>
+      <c r="C312">
+        <v>0.89238545665724778</v>
+      </c>
+      <c r="D312">
+        <v>60.635166823341947</v>
+      </c>
+      <c r="E312">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>3.766478342749529E-3</v>
+      </c>
+      <c r="B313">
+        <v>-0.77886923609187397</v>
+      </c>
+      <c r="C313">
+        <v>1.2839125666558511</v>
+      </c>
+      <c r="D313">
+        <v>58.69849789892961</v>
+      </c>
+      <c r="E313">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0.89265536723163852</v>
+      </c>
+      <c r="B314">
+        <v>-0.97812698606119852</v>
+      </c>
+      <c r="C314">
+        <v>1.0223621413686601</v>
+      </c>
+      <c r="D314">
+        <v>68.139212353194168</v>
+      </c>
+      <c r="E314">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0.99058380414312619</v>
+      </c>
+      <c r="B315">
+        <v>-1.1719821345076069</v>
+      </c>
+      <c r="C315">
+        <v>0.85325532749706712</v>
+      </c>
+      <c r="D315">
+        <v>59.35147725563484</v>
+      </c>
+      <c r="E315">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>-0.7951231020255074</v>
+      </c>
+      <c r="C316">
+        <v>1.257666891394033</v>
+      </c>
+      <c r="D316">
+        <v>58.240896990851098</v>
+      </c>
+      <c r="E316">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>9.6045197740112984E-2</v>
+      </c>
+      <c r="B317">
+        <v>-0.77897967026971771</v>
+      </c>
+      <c r="C317">
+        <v>1.283730549288604</v>
+      </c>
+      <c r="D317">
+        <v>66.5633436641522</v>
+      </c>
+      <c r="E317">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318">
+        <v>-1.119325571917192</v>
+      </c>
+      <c r="C318">
+        <v>0.89339511674622951</v>
+      </c>
+      <c r="D318">
+        <v>58.234951059920562</v>
+      </c>
+      <c r="E318">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0.25235404896421842</v>
+      </c>
+      <c r="B319">
+        <v>-0.84011345482282629</v>
+      </c>
+      <c r="C319">
+        <v>1.190315420208206</v>
+      </c>
+      <c r="D319">
+        <v>77.713820820288944</v>
+      </c>
+      <c r="E319">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="B320">
+        <v>-1.116590674313966</v>
+      </c>
+      <c r="C320">
+        <v>0.89558333506089949</v>
+      </c>
+      <c r="D320">
+        <v>58.234370215370127</v>
+      </c>
+      <c r="E320">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2.2598870056497179E-2</v>
+      </c>
+      <c r="B321">
+        <v>-0.82725459682260372</v>
+      </c>
+      <c r="C321">
+        <v>1.208817701153784</v>
+      </c>
+      <c r="D321">
+        <v>60.655894023403263</v>
+      </c>
+      <c r="E321">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>0.23728813559322029</v>
+      </c>
+      <c r="B322">
+        <v>-0.917522969337349</v>
+      </c>
+      <c r="C322">
+        <v>1.08989097103718</v>
+      </c>
+      <c r="D322">
+        <v>76.205602014171632</v>
+      </c>
+      <c r="E322">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>3.766478342749529E-3</v>
+      </c>
+      <c r="B323">
+        <v>-0.83942745542704189</v>
+      </c>
+      <c r="C323">
+        <v>1.1912881733076861</v>
+      </c>
+      <c r="D323">
+        <v>58.621380975948249</v>
+      </c>
+      <c r="E323">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0.99058380414312619</v>
+      </c>
+      <c r="B324">
+        <v>-0.94939374176404767</v>
+      </c>
+      <c r="C324">
+        <v>1.053303762190303</v>
+      </c>
+      <c r="D324">
+        <v>59.325710408647808</v>
+      </c>
+      <c r="E324">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0.97363465160075324</v>
+      </c>
+      <c r="B325">
+        <v>-0.89160724331191821</v>
+      </c>
+      <c r="C325">
+        <v>1.1215700719135611</v>
+      </c>
+      <c r="D325">
+        <v>61.232381259386337</v>
+      </c>
+      <c r="E325">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>-0.86949444668452558</v>
+      </c>
+      <c r="C326">
+        <v>1.1500936018776271</v>
+      </c>
+      <c r="D326">
+        <v>58.152233111105303</v>
+      </c>
+      <c r="E326">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>3.766478342749529E-3</v>
+      </c>
+      <c r="B327">
+        <v>-0.86505631972020114</v>
+      </c>
+      <c r="C327">
+        <v>1.155994097960519</v>
+      </c>
+      <c r="D327">
+        <v>58.583324658367097</v>
+      </c>
+      <c r="E327">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0.91902071563088494</v>
+      </c>
+      <c r="B328">
+        <v>-0.85578670572520843</v>
+      </c>
+      <c r="C328">
+        <v>1.1685154645544329</v>
+      </c>
+      <c r="D328">
+        <v>65.948384979752831</v>
+      </c>
+      <c r="E328">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0.40489642184557428</v>
+      </c>
+      <c r="B329">
+        <v>-0.64800930625897601</v>
+      </c>
+      <c r="C329">
+        <v>1.543187714036242</v>
+      </c>
+      <c r="D329">
+        <v>85.361921902140963</v>
+      </c>
+      <c r="E329">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0.17325800376647829</v>
+      </c>
+      <c r="B330">
+        <v>-0.86021579310085472</v>
+      </c>
+      <c r="C330">
+        <v>1.162499000855657</v>
+      </c>
+      <c r="D330">
+        <v>72.257032204201067</v>
+      </c>
+      <c r="E330">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0.89077212806026351</v>
+      </c>
+      <c r="B331">
+        <v>-0.81646709672404394</v>
+      </c>
+      <c r="C331">
+        <v>1.224789099294209</v>
+      </c>
+      <c r="D331">
+        <v>67.968676872164863</v>
+      </c>
+      <c r="E331">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>6.9679849340866282E-2</v>
+      </c>
+      <c r="B332">
+        <v>-0.98293014848292382</v>
+      </c>
+      <c r="C332">
+        <v>1.017366291534981</v>
+      </c>
+      <c r="D332">
+        <v>65.842421800063676</v>
+      </c>
+      <c r="E332">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.506591337099812E-2</v>
+      </c>
+      <c r="B333">
+        <v>-0.89184810797200209</v>
+      </c>
+      <c r="C333">
+        <v>1.121267165407714</v>
+      </c>
+      <c r="D333">
+        <v>59.878614004202717</v>
+      </c>
+      <c r="E333">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334">
+        <v>-0.70385094858502939</v>
+      </c>
+      <c r="C334">
+        <v>1.4207553488566389</v>
+      </c>
+      <c r="D334">
+        <v>58.074332384809587</v>
+      </c>
+      <c r="E334">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0.84369114877589457</v>
+      </c>
+      <c r="B335">
+        <v>-0.83568609469657185</v>
+      </c>
+      <c r="C335">
+        <v>1.196621562026934</v>
+      </c>
+      <c r="D335">
+        <v>71.964563683430455</v>
+      </c>
+      <c r="E335">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B336">
+        <v>-0.65689871005063338</v>
+      </c>
+      <c r="C336">
+        <v>1.5223047095387361</v>
+      </c>
+      <c r="D336">
+        <v>83.809181928217797</v>
+      </c>
+      <c r="E336">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0.2391713747645951</v>
+      </c>
+      <c r="B337">
+        <v>-0.91634847671847741</v>
+      </c>
+      <c r="C337">
+        <v>1.0912878947331111</v>
+      </c>
+      <c r="D337">
+        <v>75.751243341161199</v>
+      </c>
+      <c r="E337">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0.28813559322033888</v>
+      </c>
+      <c r="B338">
+        <v>-0.90441435617817634</v>
+      </c>
+      <c r="C338">
+        <v>1.1056878887081629</v>
+      </c>
+      <c r="D338">
+        <v>80.48458257136727</v>
+      </c>
+      <c r="E338">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>3.7664783427495303E-2</v>
+      </c>
+      <c r="B339">
+        <v>-0.90458239187562339</v>
+      </c>
+      <c r="C339">
+        <v>1.105482495548616</v>
+      </c>
+      <c r="D339">
+        <v>62.564778306778763</v>
+      </c>
+      <c r="E339">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0.34463276836158191</v>
+      </c>
+      <c r="B340">
+        <v>-0.78589969533195869</v>
+      </c>
+      <c r="C340">
+        <v>1.272427010647468</v>
+      </c>
+      <c r="D340">
+        <v>76.47386101002094</v>
+      </c>
+      <c r="E340">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0.65725047080979271</v>
+      </c>
+      <c r="B341">
+        <v>-0.8874007863684733</v>
+      </c>
+      <c r="C341">
+        <v>1.126886538034656</v>
+      </c>
+      <c r="D341">
+        <v>81.328278584475896</v>
+      </c>
+      <c r="E341">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>8.8512241054613944E-2</v>
+      </c>
+      <c r="B342">
+        <v>-0.91808558303509857</v>
+      </c>
+      <c r="C342">
+        <v>1.0892230729667931</v>
+      </c>
+      <c r="D342">
+        <v>66.01420909389897</v>
+      </c>
+      <c r="E342">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0.2448210922787194</v>
+      </c>
+      <c r="B343">
+        <v>-0.85386894807528124</v>
+      </c>
+      <c r="C343">
+        <v>1.1711399064857839</v>
+      </c>
+      <c r="D343">
+        <v>78.988950864928228</v>
+      </c>
+      <c r="E343">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0.8926553672316383</v>
+      </c>
+      <c r="B344">
+        <v>-0.64259589534873296</v>
+      </c>
+      <c r="C344">
+        <v>1.556187967022892</v>
+      </c>
+      <c r="D344">
+        <v>67.039948344300086</v>
+      </c>
+      <c r="E344">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0.10922787193973631</v>
+      </c>
+      <c r="B345">
+        <v>-0.90471306411853225</v>
+      </c>
+      <c r="C345">
+        <v>1.105322825170328</v>
+      </c>
+      <c r="D345">
+        <v>70.303481524250586</v>
+      </c>
+      <c r="E345">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0.99058380414312619</v>
+      </c>
+      <c r="B346">
+        <v>-0.55106969075212386</v>
+      </c>
+      <c r="C346">
+        <v>1.814652514521633</v>
+      </c>
+      <c r="D346">
+        <v>59.146547912902918</v>
+      </c>
+      <c r="E346">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0.67419962335216577</v>
+      </c>
+      <c r="B347">
+        <v>-0.68840037906395213</v>
+      </c>
+      <c r="C347">
+        <v>1.45264301184689</v>
+      </c>
+      <c r="D347">
+        <v>77.351182482167332</v>
+      </c>
+      <c r="E347">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0.76271186440677952</v>
+      </c>
+      <c r="B348">
+        <v>-0.60387610884757181</v>
+      </c>
+      <c r="C348">
+        <v>1.6559688077549299</v>
+      </c>
+      <c r="D348">
+        <v>78.468812874284339</v>
+      </c>
+      <c r="E348">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>9.4161958568738241E-3</v>
+      </c>
+      <c r="B349">
+        <v>-0.94014839117761573</v>
+      </c>
+      <c r="C349">
+        <v>1.0636618744275199</v>
+      </c>
+      <c r="D349">
+        <v>58.72615090458811</v>
+      </c>
+      <c r="E349">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="B350">
+        <v>-0.72033572838884175</v>
+      </c>
+      <c r="C350">
+        <v>1.388241566521595</v>
+      </c>
+      <c r="D350">
+        <v>81.095039081561794</v>
+      </c>
+      <c r="E350">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0.32203389830508478</v>
+      </c>
+      <c r="B351">
+        <v>-0.84180668090776689</v>
+      </c>
+      <c r="C351">
+        <v>1.1879211969684591</v>
+      </c>
+      <c r="D351">
+        <v>81.488803540532558</v>
+      </c>
+      <c r="E351">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>-0.65154857205886552</v>
+      </c>
+      <c r="C352">
+        <v>1.534804990578128</v>
+      </c>
+      <c r="D352">
+        <v>58.081363034940438</v>
+      </c>
+      <c r="E352">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353">
+        <v>-0.65977593237838505</v>
+      </c>
+      <c r="C353">
+        <v>1.515666078323231</v>
+      </c>
+      <c r="D353">
+        <v>58.060220514493167</v>
+      </c>
+      <c r="E353">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0.45951035781544253</v>
+      </c>
+      <c r="B354">
+        <v>-0.71762078934360096</v>
+      </c>
+      <c r="C354">
+        <v>1.393493631803348</v>
+      </c>
+      <c r="D354">
+        <v>83.424562544934105</v>
+      </c>
+      <c r="E354">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="B355">
+        <v>-0.95422479797652682</v>
+      </c>
+      <c r="C355">
+        <v>1.0479710882808131</v>
+      </c>
+      <c r="D355">
+        <v>58.720921838406113</v>
+      </c>
+      <c r="E355">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0.58003766478342755</v>
+      </c>
+      <c r="B356">
+        <v>-0.90026500429954159</v>
+      </c>
+      <c r="C356">
+        <v>1.1107840416145669</v>
+      </c>
+      <c r="D356">
+        <v>80.805170040859693</v>
+      </c>
+      <c r="E356">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>-0.74044469654484946</v>
+      </c>
+      <c r="C357">
+        <v>1.3505397562658199</v>
+      </c>
+      <c r="D357">
+        <v>58.035147597651871</v>
+      </c>
+      <c r="E357">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0.7664783427495292</v>
+      </c>
+      <c r="B358">
+        <v>-0.83014288441407447</v>
+      </c>
+      <c r="C358">
+        <v>1.204611903293989</v>
+      </c>
+      <c r="D358">
+        <v>76.505365347958303</v>
+      </c>
+      <c r="E358">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0.76459510357815441</v>
+      </c>
+      <c r="B359">
+        <v>-1.070518382732877</v>
+      </c>
+      <c r="C359">
+        <v>0.93412688294725599</v>
+      </c>
+      <c r="D359">
+        <v>76.133578177810051</v>
+      </c>
+      <c r="E359">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0.99623352165725043</v>
+      </c>
+      <c r="B360">
+        <v>-1.210371361544786</v>
+      </c>
+      <c r="C360">
+        <v>0.82619271388221627</v>
+      </c>
+      <c r="D360">
+        <v>58.51961491712094</v>
+      </c>
+      <c r="E360">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0.79284369114877595</v>
+      </c>
+      <c r="B361">
+        <v>-1.2281030937641231</v>
+      </c>
+      <c r="C361">
+        <v>0.81426388800553429</v>
+      </c>
+      <c r="D361">
+        <v>77.216345651042531</v>
+      </c>
+      <c r="E361">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0.86629001883239165</v>
+      </c>
+      <c r="B362">
+        <v>-1.0825366105224381</v>
+      </c>
+      <c r="C362">
+        <v>0.92375628711290836</v>
+      </c>
+      <c r="D362">
+        <v>71.828275401473903</v>
+      </c>
+      <c r="E362">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0.50470809792843696</v>
+      </c>
+      <c r="B363">
+        <v>-1.353399474528433</v>
+      </c>
+      <c r="C363">
+        <v>0.7388801450129362</v>
+      </c>
+      <c r="D363">
+        <v>80.21552942718165</v>
+      </c>
+      <c r="E363">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>-0.87259187289679385</v>
+      </c>
+      <c r="C364">
+        <v>1.1460111319628059</v>
+      </c>
+      <c r="D364">
+        <v>58.122727626803098</v>
+      </c>
+      <c r="E364">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0.2448210922787194</v>
+      </c>
+      <c r="B365">
+        <v>-0.87163216187847148</v>
+      </c>
+      <c r="C365">
+        <v>1.1472729480803929</v>
+      </c>
+      <c r="D365">
+        <v>72.989316749884253</v>
+      </c>
+      <c r="E365">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0.76271186440677963</v>
+      </c>
+      <c r="B366">
+        <v>-1.0874235944718269</v>
+      </c>
+      <c r="C366">
+        <v>0.91960483944226956</v>
+      </c>
+      <c r="D366">
+        <v>76.907472609546318</v>
+      </c>
+      <c r="E366">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0.13370998116760829</v>
+      </c>
+      <c r="B367">
+        <v>-0.98694573523796891</v>
+      </c>
+      <c r="C367">
+        <v>1.013226932642739</v>
+      </c>
+      <c r="D367">
+        <v>70.931290897522061</v>
+      </c>
+      <c r="E367">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0.97928436911487748</v>
+      </c>
+      <c r="B368">
+        <v>-0.96652328659498565</v>
+      </c>
+      <c r="C368">
+        <v>1.0346362202228481</v>
+      </c>
+      <c r="D368">
+        <v>60.454107584220353</v>
+      </c>
+      <c r="E368">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0.57815442561205277</v>
+      </c>
+      <c r="B369">
+        <v>-0.91450877125146235</v>
+      </c>
+      <c r="C369">
+        <v>1.093483224476401</v>
+      </c>
+      <c r="D369">
+        <v>84.724531474447346</v>
+      </c>
+      <c r="E369">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0.68926553672316382</v>
+      </c>
+      <c r="B370">
+        <v>-0.79341974322157316</v>
+      </c>
+      <c r="C370">
+        <v>1.260366922481202</v>
+      </c>
+      <c r="D370">
+        <v>83.026289968008257</v>
+      </c>
+      <c r="E370">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0.51600753295668544</v>
+      </c>
+      <c r="B371">
+        <v>-1.0699251238696359</v>
+      </c>
+      <c r="C371">
+        <v>0.93464484354126043</v>
+      </c>
+      <c r="D371">
+        <v>84.112168783952228</v>
+      </c>
+      <c r="E371">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0.99246704331450097</v>
+      </c>
+      <c r="B372">
+        <v>-1.000065115231016</v>
+      </c>
+      <c r="C372">
+        <v>0.99993488900870142</v>
+      </c>
+      <c r="D372">
+        <v>58.991561642428778</v>
+      </c>
+      <c r="E372">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>8.662900188323916E-2</v>
+      </c>
+      <c r="B373">
+        <v>-0.78652368504858117</v>
+      </c>
+      <c r="C373">
+        <v>1.2714175288163549</v>
+      </c>
+      <c r="D373">
+        <v>66.668523915415307</v>
+      </c>
+      <c r="E373">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="B374">
+        <v>-0.9094447792835687</v>
+      </c>
+      <c r="C374">
+        <v>1.0995719836753231</v>
+      </c>
+      <c r="D374">
+        <v>68.707181824253865</v>
+      </c>
+      <c r="E374">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>4.519774011299435E-2</v>
+      </c>
+      <c r="B375">
+        <v>-0.85508410872052987</v>
+      </c>
+      <c r="C375">
+        <v>1.169475598717779</v>
+      </c>
+      <c r="D375">
+        <v>60.813554402868427</v>
+      </c>
+      <c r="E375">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0.36346516007532959</v>
+      </c>
+      <c r="B376">
+        <v>-0.56152935855995889</v>
+      </c>
+      <c r="C376">
+        <v>1.7808507867950101</v>
+      </c>
+      <c r="D376">
+        <v>79.834570240015282</v>
+      </c>
+      <c r="E376">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0.99435028248587576</v>
+      </c>
+      <c r="B377">
+        <v>-0.89941685429530815</v>
+      </c>
+      <c r="C377">
+        <v>1.11183151085544</v>
+      </c>
+      <c r="D377">
+        <v>58.809359215104458</v>
+      </c>
+      <c r="E377">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0.69303201506591328</v>
+      </c>
+      <c r="B378">
+        <v>-1.3333807944645371</v>
+      </c>
+      <c r="C378">
+        <v>0.74997330406396234</v>
+      </c>
+      <c r="D378">
+        <v>79.598876333877897</v>
+      </c>
+      <c r="E378">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0.41242937853107342</v>
+      </c>
+      <c r="B379">
+        <v>-0.69870165613939106</v>
+      </c>
+      <c r="C379">
+        <v>1.431226033619849</v>
+      </c>
+      <c r="D379">
+        <v>74.914017428408513</v>
+      </c>
+      <c r="E379">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0.74199623352165722</v>
+      </c>
+      <c r="B380">
+        <v>-0.88949930351052797</v>
+      </c>
+      <c r="C380">
+        <v>1.124227974157334</v>
+      </c>
+      <c r="D380">
+        <v>75.572797744147451</v>
+      </c>
+      <c r="E380">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0.13370998116760829</v>
+      </c>
+      <c r="B381">
+        <v>-0.67544814589965108</v>
+      </c>
+      <c r="C381">
+        <v>1.4804985491048579</v>
+      </c>
+      <c r="D381">
+        <v>65.524871170746209</v>
+      </c>
+      <c r="E381">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>5.6497175141242938E-3</v>
+      </c>
+      <c r="B382">
+        <v>-0.80898294442046148</v>
+      </c>
+      <c r="C382">
+        <v>1.236120003390651</v>
+      </c>
+      <c r="D382">
+        <v>58.888815265700792</v>
+      </c>
+      <c r="E382">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0.87570621468926546</v>
+      </c>
+      <c r="B383">
+        <v>-1.0394315737178079</v>
+      </c>
+      <c r="C383">
+        <v>0.96206429098861157</v>
+      </c>
+      <c r="D383">
+        <v>70.263516910641542</v>
+      </c>
+      <c r="E383">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0.54048964218455742</v>
+      </c>
+      <c r="B384">
+        <v>-1.1275036165807799</v>
+      </c>
+      <c r="C384">
+        <v>0.88691511521050181</v>
+      </c>
+      <c r="D384">
+        <v>73.881180062472836</v>
+      </c>
+      <c r="E384">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0.7344632768361582</v>
+      </c>
+      <c r="B385">
+        <v>-0.66717626718687395</v>
+      </c>
+      <c r="C385">
+        <v>1.4988542746229061</v>
+      </c>
+      <c r="D385">
+        <v>74.706017628302391</v>
+      </c>
+      <c r="E385">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0.15065913370998121</v>
+      </c>
+      <c r="B386">
+        <v>-0.95061386156226091</v>
+      </c>
+      <c r="C386">
+        <v>1.051951839158517</v>
+      </c>
+      <c r="D386">
+        <v>70.752531166759667</v>
+      </c>
+      <c r="E386">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0.36723163841807899</v>
+      </c>
+      <c r="B387">
+        <v>-0.82679476945657471</v>
+      </c>
+      <c r="C387">
+        <v>1.209489993093773</v>
+      </c>
+      <c r="D387">
+        <v>73.901242426021057</v>
+      </c>
+      <c r="E387">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0.40866290018832391</v>
+      </c>
+      <c r="B388">
+        <v>-0.61808174598077459</v>
+      </c>
+      <c r="C388">
+        <v>1.6179089683569221</v>
+      </c>
+      <c r="D388">
+        <v>79.15424778234383</v>
+      </c>
+      <c r="E388">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>1.1299435028248589E-2</v>
+      </c>
+      <c r="B389">
+        <v>-0.83113752924246365</v>
+      </c>
+      <c r="C389">
+        <v>1.203170311550539</v>
+      </c>
+      <c r="D389">
+        <v>59.520791868903579</v>
+      </c>
+      <c r="E389">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="B390">
+        <v>-0.74863172065119732</v>
+      </c>
+      <c r="C390">
+        <v>1.3357702758442429</v>
+      </c>
+      <c r="D390">
+        <v>76.469688295054738</v>
+      </c>
+      <c r="E390">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0.53672316384180785</v>
+      </c>
+      <c r="B391">
+        <v>-0.59165258442252044</v>
+      </c>
+      <c r="C391">
+        <v>1.6901810730296141</v>
+      </c>
+      <c r="D391">
+        <v>86.83768976575179</v>
+      </c>
+      <c r="E391">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0.91902071563088528</v>
+      </c>
+      <c r="B392">
+        <v>-0.8730401109338749</v>
+      </c>
+      <c r="C392">
+        <v>1.145422744586521</v>
+      </c>
+      <c r="D392">
+        <v>67.92583081803329</v>
+      </c>
+      <c r="E392">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0.69679849340866284</v>
+      </c>
+      <c r="B393">
+        <v>-1.113574994716658</v>
+      </c>
+      <c r="C393">
+        <v>0.89800867004421525</v>
+      </c>
+      <c r="D393">
+        <v>73.38825441570711</v>
+      </c>
+      <c r="E393">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0.82297551789077206</v>
+      </c>
+      <c r="B394">
+        <v>-1.1686579042344321</v>
+      </c>
+      <c r="C394">
+        <v>0.85568239976529548</v>
+      </c>
+      <c r="D394">
+        <v>71.40307068813469</v>
+      </c>
+      <c r="E394">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0.77024482109227865</v>
+      </c>
+      <c r="B395">
+        <v>-0.95380863278347261</v>
+      </c>
+      <c r="C395">
+        <v>1.0484283383782429</v>
+      </c>
+      <c r="D395">
+        <v>72.979751088269282</v>
+      </c>
+      <c r="E395">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0.128060263653484</v>
+      </c>
+      <c r="B396">
+        <v>-0.74488838579176009</v>
+      </c>
+      <c r="C396">
+        <v>1.3424830069501961</v>
+      </c>
+      <c r="D396">
+        <v>72.129426651861692</v>
+      </c>
+      <c r="E396">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0.4783427495291902</v>
+      </c>
+      <c r="B397">
+        <v>-0.84840438318739086</v>
+      </c>
+      <c r="C397">
+        <v>1.178683207933316</v>
+      </c>
+      <c r="D397">
+        <v>81.201413286359397</v>
+      </c>
+      <c r="E397">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0.42937853107344631</v>
+      </c>
+      <c r="B398">
+        <v>-0.69098941126854951</v>
+      </c>
+      <c r="C398">
+        <v>1.447200179470413</v>
+      </c>
+      <c r="D398">
+        <v>78.58629262801098</v>
+      </c>
+      <c r="E398">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0.62146892655367236</v>
+      </c>
+      <c r="B399">
+        <v>-0.69573213431137038</v>
+      </c>
+      <c r="C399">
+        <v>1.437334788323082</v>
+      </c>
+      <c r="D399">
+        <v>74.067090880924155</v>
+      </c>
+      <c r="E399">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0.93785310734463279</v>
+      </c>
+      <c r="B400">
+        <v>-0.79584584116019963</v>
+      </c>
+      <c r="C400">
+        <v>1.2565247542692191</v>
+      </c>
+      <c r="D400">
+        <v>62.249648501621522</v>
+      </c>
+      <c r="E400">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>0.44256120527306969</v>
+      </c>
+      <c r="B401">
+        <v>-0.5330352789182432</v>
+      </c>
+      <c r="C401">
+        <v>1.8760484334722241</v>
+      </c>
+      <c r="D401">
+        <v>76.068111328339626</v>
+      </c>
+      <c r="E401">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>2.0715630885122412E-2</v>
+      </c>
+      <c r="B402">
+        <v>-0.81883373659737602</v>
+      </c>
+      <c r="C402">
+        <v>1.22124914412473</v>
+      </c>
+      <c r="D402">
+        <v>60.582618401161582</v>
+      </c>
+      <c r="E402">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>0.20527306967984929</v>
+      </c>
+      <c r="B403">
+        <v>-1.0838771365080011</v>
+      </c>
+      <c r="C403">
+        <v>0.92261379663544352</v>
+      </c>
+      <c r="D403">
+        <v>69.256711173325542</v>
+      </c>
+      <c r="E403">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="B404">
+        <v>-0.86462024558934414</v>
+      </c>
+      <c r="C404">
+        <v>1.1565771274744761</v>
+      </c>
+      <c r="D404">
+        <v>71.642226763328367</v>
+      </c>
+      <c r="E404">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>0.94538606403013181</v>
+      </c>
+      <c r="B405">
+        <v>-0.87357486416432462</v>
+      </c>
+      <c r="C405">
+        <v>1.1447215814257841</v>
+      </c>
+      <c r="D405">
+        <v>64.168796659969573</v>
+      </c>
+      <c r="E405">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>0.86252354048964208</v>
+      </c>
+      <c r="B406">
+        <v>-0.95106455680340396</v>
+      </c>
+      <c r="C406">
+        <v>1.0514533349461279</v>
+      </c>
+      <c r="D406">
+        <v>66.865261486112374</v>
+      </c>
+      <c r="E406">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>0.74764595103578146</v>
+      </c>
+      <c r="B407">
+        <v>-0.92131464282916076</v>
+      </c>
+      <c r="C407">
+        <v>1.085405521103207</v>
+      </c>
+      <c r="D407">
+        <v>76.78956056956099</v>
+      </c>
+      <c r="E407">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>